--- a/QA/testcases/LLS/Provider/L_Prov_Patient_App_Create_PCase_Positive.xlsx
+++ b/QA/testcases/LLS/Provider/L_Prov_Patient_App_Create_PCase_Positive.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27465" windowHeight="13650"/>
+    <workbookView windowWidth="28680" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -548,10 +548,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -583,6 +583,27 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -598,10 +619,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -613,24 +635,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -645,28 +690,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -674,34 +697,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -720,8 +719,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -754,187 +754,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1007,6 +1007,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1022,32 +1037,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1069,15 +1072,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1087,18 +1081,24 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1116,130 +1116,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1645,7 +1645,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A33"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1715,7 +1715,7 @@
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>12</v>

--- a/QA/testcases/LLS/Provider/L_Prov_Patient_App_Create_PCase_Positive.xlsx
+++ b/QA/testcases/LLS/Provider/L_Prov_Patient_App_Create_PCase_Positive.xlsx
@@ -549,9 +549,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -584,23 +584,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -619,11 +628,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -636,28 +644,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -689,14 +675,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -711,17 +720,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -754,19 +754,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,25 +838,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,133 +928,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,6 +998,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1037,24 +1061,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1081,24 +1087,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1116,130 +1116,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1644,8 +1644,8 @@
   <sheetPr/>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1781,7 +1781,7 @@
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -1857,7 +1857,7 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>

--- a/QA/testcases/LLS/Provider/L_Prov_Patient_App_Create_PCase_Positive.xlsx
+++ b/QA/testcases/LLS/Provider/L_Prov_Patient_App_Create_PCase_Positive.xlsx
@@ -548,10 +548,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -583,33 +583,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -622,14 +600,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,24 +655,51 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,29 +714,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -714,14 +721,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -754,31 +754,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,151 +922,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,30 +998,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1032,16 +1008,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1062,16 +1038,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1098,7 +1098,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1116,130 +1116,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1644,8 +1644,8 @@
   <sheetPr/>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>

--- a/QA/testcases/LLS/Provider/L_Prov_Patient_App_Create_PCase_Positive.xlsx
+++ b/QA/testcases/LLS/Provider/L_Prov_Patient_App_Create_PCase_Positive.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13650"/>
+    <workbookView windowWidth="28680" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
     <t>SSN_FIELD</t>
   </si>
   <si>
-    <t>101-14-3599</t>
+    <t>131-91-7411</t>
   </si>
   <si>
     <t>Enter SSN</t>
@@ -548,9 +548,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
@@ -583,11 +583,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -599,6 +599,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -606,27 +614,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -638,15 +652,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -663,28 +668,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -692,14 +699,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -712,22 +726,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -754,13 +754,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor theme="4" tint="0.799951170384838"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,174 +796,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1000,24 +1006,29 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <top style="thin">
+        <color theme="4" tint="0.399945066682943"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399945066682943"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1038,16 +1049,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1070,8 +1081,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1086,27 +1112,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1116,134 +1133,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1257,6 +1274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1738,7 +1756,7 @@
       <c r="D4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="12" t="s">
@@ -1750,23 +1768,23 @@
       <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="13">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="14" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="11"/>
@@ -1788,7 +1806,7 @@
       <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="13">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -1797,7 +1815,7 @@
       <c r="C7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="9"/>
@@ -1810,14 +1828,14 @@
       <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="13">
+      <c r="A8" s="14">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="9"/>
-      <c r="D8" s="14"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="9">
         <v>1</v>
       </c>
@@ -1835,7 +1853,7 @@
       <c r="C9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="16" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="11"/>
@@ -1848,7 +1866,7 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="13">
+      <c r="A10" s="14">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -1864,7 +1882,7 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="13">
+      <c r="A11" s="14">
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -1873,7 +1891,7 @@
       <c r="C11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E11" s="11"/>
@@ -1886,7 +1904,7 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="13">
+      <c r="A12" s="14">
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -1902,7 +1920,7 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="13">
+      <c r="A13" s="14">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -1911,7 +1929,7 @@
       <c r="C13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="15" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="9"/>
@@ -1920,7 +1938,7 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="13">
+      <c r="A14" s="14">
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -1929,7 +1947,7 @@
       <c r="C14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="16" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="11"/>
@@ -1942,7 +1960,7 @@
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="13">
+      <c r="A15" s="14">
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -1951,7 +1969,7 @@
       <c r="C15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="15" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="9"/>
@@ -1960,7 +1978,7 @@
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="13">
+      <c r="A16" s="14">
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -1969,7 +1987,7 @@
       <c r="C16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="16" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="11"/>
@@ -1982,7 +2000,7 @@
       <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="13">
+      <c r="A17" s="14">
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -1991,7 +2009,7 @@
       <c r="C17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E17" s="9">
@@ -2002,7 +2020,7 @@
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="13">
+      <c r="A18" s="14">
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -2011,7 +2029,7 @@
       <c r="C18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="16" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="11"/>
@@ -2024,14 +2042,14 @@
       <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="13">
+      <c r="A19" s="14">
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="14"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="9">
         <v>3</v>
       </c>
@@ -2040,7 +2058,7 @@
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="13">
+      <c r="A20" s="14">
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
@@ -2049,7 +2067,7 @@
       <c r="C20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="16" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="11" t="s">
@@ -2060,7 +2078,7 @@
       <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="13">
+      <c r="A21" s="14">
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -2069,7 +2087,7 @@
       <c r="C21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="15" t="s">
         <v>48</v>
       </c>
       <c r="E21" s="9" t="s">
@@ -2084,7 +2102,7 @@
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="13">
+      <c r="A22" s="14">
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
@@ -2093,7 +2111,7 @@
       <c r="C22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="16" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="11"/>
@@ -2106,14 +2124,14 @@
       <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="13">
+      <c r="A23" s="14">
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="9"/>
-      <c r="D23" s="14"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="9">
         <v>2</v>
       </c>
@@ -2122,7 +2140,7 @@
       <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="13">
+      <c r="A24" s="14">
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -2131,7 +2149,7 @@
       <c r="C24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="16" t="s">
         <v>52</v>
       </c>
       <c r="E24" s="11"/>
@@ -2140,7 +2158,7 @@
       <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="13">
+      <c r="A25" s="14">
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -2149,7 +2167,7 @@
       <c r="C25" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="15" t="s">
         <v>53</v>
       </c>
       <c r="E25" s="9" t="s">
@@ -2160,7 +2178,7 @@
       <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="13">
+      <c r="A26" s="14">
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -2169,7 +2187,7 @@
       <c r="C26" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="16" t="s">
         <v>52</v>
       </c>
       <c r="E26" s="11"/>
@@ -2178,14 +2196,14 @@
       <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="13">
+      <c r="A27" s="14">
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="14"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="9">
         <v>10</v>
       </c>
@@ -2194,14 +2212,14 @@
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="13">
+      <c r="A28" s="14">
         <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>55</v>
       </c>
       <c r="C28" s="11"/>
-      <c r="D28" s="15"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11" t="s">
         <v>56</v>
@@ -2212,14 +2230,14 @@
       <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="13">
+      <c r="A29" s="14">
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="9"/>
-      <c r="D29" s="14"/>
+      <c r="D29" s="15"/>
       <c r="E29" s="9">
         <v>10</v>
       </c>
@@ -2228,7 +2246,7 @@
       <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="13">
+      <c r="A30" s="14">
         <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -2237,7 +2255,7 @@
       <c r="C30" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="16" t="s">
         <v>59</v>
       </c>
       <c r="E30" s="11"/>
@@ -2250,7 +2268,7 @@
       <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="13">
+      <c r="A31" s="14">
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -2259,7 +2277,7 @@
       <c r="C31" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="15" t="s">
         <v>63</v>
       </c>
       <c r="E31" s="9"/>
@@ -2272,7 +2290,7 @@
       <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="13">
+      <c r="A32" s="14">
         <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
@@ -2281,7 +2299,7 @@
       <c r="C32" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="16" t="s">
         <v>66</v>
       </c>
       <c r="E32" s="11"/>
@@ -2294,7 +2312,7 @@
       <c r="H32" s="11"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="13">
+      <c r="A33" s="14">
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
